--- a/演算法/演算法題目清單.xlsx
+++ b/演算法/演算法題目清單.xlsx
@@ -10,7 +10,7 @@
     <sheet name="枚舉" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">枚舉!$A$1:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">枚舉!$C$1:$D$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>題目名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,7 +44,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>參考解法</t>
+    <t>編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>題目URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,19 +129,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -147,6 +155,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -425,44 +438,47 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C2">
+  <autoFilter ref="C1:D2">
     <filterColumn colId="0">
       <filters>
         <filter val="Largest Rectangle in a Histogram"/>
@@ -471,7 +487,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/演算法/演算法題目清單.xlsx
+++ b/演算法/演算法題目清單.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>題目名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,22 @@
   </si>
   <si>
     <t>題目URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flip Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://poj.org/problem?id=1753</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +451,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -477,6 +493,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="C1:D2">
     <filterColumn colId="0">
@@ -488,8 +518,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/演算法/演算法題目清單.xlsx
+++ b/演算法/演算法題目清單.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>題目名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>http://poj.org/problem?id=1753</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://poj.org/problem?id=2956</t>
+  </si>
+  <si>
+    <t>Repeatless Numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -164,6 +179,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -451,10 +467,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -507,6 +523,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="C1:D2">
     <filterColumn colId="0">
@@ -519,8 +549,9 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/演算法/演算法題目清單.xlsx
+++ b/演算法/演算法題目清單.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>題目名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,22 @@
   </si>
   <si>
     <t>0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Pilots Brothers' refrigerator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://poj.org/problem?id=2965</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +483,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,6 +551,20 @@
       </c>
       <c r="D4" s="8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -550,8 +580,9 @@
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>